--- a/Project_management/Week_13/Team5_Timesheet_Week_13_Yifei Xu.xlsx
+++ b/Project_management/Week_13/Team5_Timesheet_Week_13_Yifei Xu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixxx/Team-05/Project_management/Week_13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8E2C3D-00C4-1942-A3A9-4E0904D10232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36435E95-7D7F-954C-B13B-6900E0E92D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1700" windowWidth="19560" windowHeight="20800" xr2:uid="{734FEDBC-F2DF-6E41-AF65-0F4174D1A0E8}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="C6" s="8">
         <v>0.58333333333333337</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="7">
-        <v>44327</v>
+        <v>44341</v>
       </c>
       <c r="C7" s="13">
         <v>0.54166666666666663</v>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="7">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="C8" s="8">
         <v>0.58333333333333337</v>
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7">
-        <v>44329</v>
+        <v>44343</v>
       </c>
       <c r="C9" s="13">
         <v>0.58333333333333337</v>
@@ -829,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="7">
-        <v>44330</v>
+        <v>44344</v>
       </c>
       <c r="C10" s="8">
         <v>0.5</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="7">
-        <v>44331</v>
+        <v>44345</v>
       </c>
       <c r="C11" s="13">
         <v>0.45833333333333331</v>
